--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="480">
   <si>
     <t>TestCases</t>
   </si>
@@ -1111,6 +1111,378 @@
   </si>
   <si>
     <t>IDEP761454235211SW15</t>
+  </si>
+  <si>
+    <t>6939320141</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>LabeenChana61238@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-07</t>
+  </si>
+  <si>
+    <t>969598422535098</t>
+  </si>
+  <si>
+    <t>a8928648c0b60e40</t>
+  </si>
+  <si>
+    <t>127056560035198</t>
+  </si>
+  <si>
+    <t>6886709813</t>
+  </si>
+  <si>
+    <t>RaghavanMehrotra98349@example.net</t>
+  </si>
+  <si>
+    <t>1975-05-24</t>
+  </si>
+  <si>
+    <t>327960276099034</t>
+  </si>
+  <si>
+    <t>6dc703e8ee032e9d</t>
+  </si>
+  <si>
+    <t>399989251821107</t>
+  </si>
+  <si>
+    <t>7589617715</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>NazirRege43688@example.net</t>
+  </si>
+  <si>
+    <t>1989-02-28</t>
+  </si>
+  <si>
+    <t>620084730551730</t>
+  </si>
+  <si>
+    <t>7193285717a0b59b</t>
+  </si>
+  <si>
+    <t>428529679424228</t>
+  </si>
+  <si>
+    <t>IDEP7146332758292SNE</t>
+  </si>
+  <si>
+    <t>6342868055</t>
+  </si>
+  <si>
+    <t>HariSaha84063@example.net</t>
+  </si>
+  <si>
+    <t>1974-12-10</t>
+  </si>
+  <si>
+    <t>436791843419134</t>
+  </si>
+  <si>
+    <t>f719d6277aad6524</t>
+  </si>
+  <si>
+    <t>832314368301072</t>
+  </si>
+  <si>
+    <t>IDEP147638118432V4Q8</t>
+  </si>
+  <si>
+    <t>6446306531</t>
+  </si>
+  <si>
+    <t>Bimla</t>
+  </si>
+  <si>
+    <t>BaldevKara27079@example.net</t>
+  </si>
+  <si>
+    <t>1979-05-01</t>
+  </si>
+  <si>
+    <t>653554845727359</t>
+  </si>
+  <si>
+    <t>09e18c52dc9e6bad</t>
+  </si>
+  <si>
+    <t>577240685857257</t>
+  </si>
+  <si>
+    <t>8546537957</t>
+  </si>
+  <si>
+    <t>Alka</t>
+  </si>
+  <si>
+    <t>HarbhajanSathe20714@example.net</t>
+  </si>
+  <si>
+    <t>1978-07-13</t>
+  </si>
+  <si>
+    <t>316200350788357</t>
+  </si>
+  <si>
+    <t>0e0e78545ed99099</t>
+  </si>
+  <si>
+    <t>117566503839029</t>
+  </si>
+  <si>
+    <t>IDEP746143511453W5A8</t>
+  </si>
+  <si>
+    <t>6147962399</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>NeerendraBuch74633@example.net</t>
+  </si>
+  <si>
+    <t>1981-05-04</t>
+  </si>
+  <si>
+    <t>156031973842849</t>
+  </si>
+  <si>
+    <t>fe3ce22603e031e6</t>
+  </si>
+  <si>
+    <t>550678521092301</t>
+  </si>
+  <si>
+    <t>IDEP761443598885HDYA</t>
+  </si>
+  <si>
+    <t>6868285895</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>SumitBanik41263@example.net</t>
+  </si>
+  <si>
+    <t>1984-05-13</t>
+  </si>
+  <si>
+    <t>344451142997238</t>
+  </si>
+  <si>
+    <t>e1888deeec4ae3ba</t>
+  </si>
+  <si>
+    <t>101011150558703</t>
+  </si>
+  <si>
+    <t>IDEP146744338456J2I4</t>
+  </si>
+  <si>
+    <t>7491414395</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>DavidDevan17501@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-01</t>
+  </si>
+  <si>
+    <t>576834591152729</t>
+  </si>
+  <si>
+    <t>f3ff7469370a54aa</t>
+  </si>
+  <si>
+    <t>680546497142025</t>
+  </si>
+  <si>
+    <t>IDEP716445187938HICF</t>
+  </si>
+  <si>
+    <t>7700851398</t>
+  </si>
+  <si>
+    <t>HimeshGanesan71903@example.net</t>
+  </si>
+  <si>
+    <t>1988-09-16</t>
+  </si>
+  <si>
+    <t>903661633580003</t>
+  </si>
+  <si>
+    <t>90ddc21ba0b05518</t>
+  </si>
+  <si>
+    <t>617909619355610</t>
+  </si>
+  <si>
+    <t>9192771152</t>
+  </si>
+  <si>
+    <t>Isha</t>
+  </si>
+  <si>
+    <t>DeepeshChakraborty95017@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-27</t>
+  </si>
+  <si>
+    <t>979202202326921</t>
+  </si>
+  <si>
+    <t>a9a20718028ac7f5</t>
+  </si>
+  <si>
+    <t>765115433756674</t>
+  </si>
+  <si>
+    <t>7651593638</t>
+  </si>
+  <si>
+    <t>ArpitKumer58911@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-29</t>
+  </si>
+  <si>
+    <t>750015376379749</t>
+  </si>
+  <si>
+    <t>d78d2c16980de788</t>
+  </si>
+  <si>
+    <t>499119259132526</t>
+  </si>
+  <si>
+    <t>9985722788</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>SureshRai79440@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-22</t>
+  </si>
+  <si>
+    <t>835208481569168</t>
+  </si>
+  <si>
+    <t>91d417c43ef445cf</t>
+  </si>
+  <si>
+    <t>191175339783101</t>
+  </si>
+  <si>
+    <t>9111337471</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>SrinivasanBhattacharyya70326@example.net</t>
+  </si>
+  <si>
+    <t>1994-01-09</t>
+  </si>
+  <si>
+    <t>302002654273847</t>
+  </si>
+  <si>
+    <t>0fbe4edab107252d</t>
+  </si>
+  <si>
+    <t>046681319910538</t>
+  </si>
+  <si>
+    <t>8161883726</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>VijayentVyas43491@example.net</t>
+  </si>
+  <si>
+    <t>1982-05-04</t>
+  </si>
+  <si>
+    <t>091008797855643</t>
+  </si>
+  <si>
+    <t>72ec50f32547c324</t>
+  </si>
+  <si>
+    <t>790473995681239</t>
+  </si>
+  <si>
+    <t>IDEP175662995934PG2D</t>
+  </si>
+  <si>
+    <t>6081424745</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>MohanChaudhuri48345@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-17</t>
+  </si>
+  <si>
+    <t>519431108386666</t>
+  </si>
+  <si>
+    <t>c73a32abda83c1b0</t>
+  </si>
+  <si>
+    <t>184213916690651</t>
+  </si>
+  <si>
+    <t>IDEP715663471587EB6V</t>
+  </si>
+  <si>
+    <t>6660532140</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>KrishnaBhat21829@example.net</t>
+  </si>
+  <si>
+    <t>1975-07-22</t>
+  </si>
+  <si>
+    <t>683631157850971</t>
+  </si>
+  <si>
+    <t>3c75b74ba191e543</t>
+  </si>
+  <si>
+    <t>965398140215113</t>
+  </si>
+  <si>
+    <t>IDEP651764529886C5K3</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1726,7 +2098,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2175,16 +2547,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2403,13 +2775,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>474</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>475</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2956,10 +3328,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>474</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -2971,7 +3343,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -2980,10 +3352,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="M2" t="n">
-        <v>4221625.0</v>
+        <v>4224455.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3139,7 +3511,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3156,7 +3528,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3173,7 +3545,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3190,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3207,7 +3579,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3293,7 +3665,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3537,7 +3909,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3752,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3835,7 +4207,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4133,7 +4505,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4153,7 +4525,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4173,7 +4545,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4193,7 +4565,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4213,7 +4585,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4233,7 +4605,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4253,7 +4625,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="488">
   <si>
     <t>TestCases</t>
   </si>
@@ -1483,6 +1483,30 @@
   </si>
   <si>
     <t>IDEP651764529886C5K3</t>
+  </si>
+  <si>
+    <t>6834118208</t>
+  </si>
+  <si>
+    <t>Binita</t>
+  </si>
+  <si>
+    <t>PrasoonSrivastava57638@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-12</t>
+  </si>
+  <si>
+    <t>159911552621994</t>
+  </si>
+  <si>
+    <t>06a3393259fe6615</t>
+  </si>
+  <si>
+    <t>611408140157278</t>
+  </si>
+  <si>
+    <t>IDEP5617781118315REV</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2098,7 +2122,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2547,16 +2571,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2775,13 +2799,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3328,10 +3352,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3343,7 +3367,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3352,10 +3376,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M2" t="n">
-        <v>4224455.0</v>
+        <v>4224667.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3511,7 +3535,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3528,7 +3552,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3545,7 +3569,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3562,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3579,7 +3603,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3665,7 +3689,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3909,7 +3933,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4124,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4207,7 +4231,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4505,7 +4529,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4525,7 +4549,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4545,7 +4569,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4565,7 +4589,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4585,7 +4609,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4605,7 +4629,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4625,7 +4649,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="496">
   <si>
     <t>TestCases</t>
   </si>
@@ -1507,6 +1507,30 @@
   </si>
   <si>
     <t>IDEP5617781118315REV</t>
+  </si>
+  <si>
+    <t>7524722299</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>RajeshVasa12118@example.net</t>
+  </si>
+  <si>
+    <t>1981-06-07</t>
+  </si>
+  <si>
+    <t>893793533963310</t>
+  </si>
+  <si>
+    <t>bd8d61e99823ff1a</t>
+  </si>
+  <si>
+    <t>813710597426270</t>
+  </si>
+  <si>
+    <t>IDEP5617983188133D6Y</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2122,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2571,16 +2595,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2799,13 +2823,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3352,10 +3376,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3367,7 +3391,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3376,10 +3400,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M2" t="n">
-        <v>4224667.0</v>
+        <v>4224877.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3535,7 +3559,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3552,7 +3576,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3569,7 +3593,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3586,7 +3610,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3603,7 +3627,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3689,7 +3713,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3933,7 +3957,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4148,7 +4172,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4231,7 +4255,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4529,7 +4553,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4549,7 +4573,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4569,7 +4593,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4589,7 +4613,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4609,7 +4633,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4629,7 +4653,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4649,7 +4673,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="517">
   <si>
     <t>TestCases</t>
   </si>
@@ -1531,6 +1531,69 @@
   </si>
   <si>
     <t>IDEP5617983188133D6Y</t>
+  </si>
+  <si>
+    <t>9687369209</t>
+  </si>
+  <si>
+    <t>LalitMemon89172@example.net</t>
+  </si>
+  <si>
+    <t>1993-12-10</t>
+  </si>
+  <si>
+    <t>629465224842514</t>
+  </si>
+  <si>
+    <t>5299fa8ad6f0853f</t>
+  </si>
+  <si>
+    <t>196849725935849</t>
+  </si>
+  <si>
+    <t>8405634003</t>
+  </si>
+  <si>
+    <t>Bhairavi</t>
+  </si>
+  <si>
+    <t>HemendraMital10344@example.net</t>
+  </si>
+  <si>
+    <t>1993-01-10</t>
+  </si>
+  <si>
+    <t>106197099739572</t>
+  </si>
+  <si>
+    <t>9c54b189d60302f4</t>
+  </si>
+  <si>
+    <t>136173677623284</t>
+  </si>
+  <si>
+    <t>6436368972</t>
+  </si>
+  <si>
+    <t>Nishi</t>
+  </si>
+  <si>
+    <t>AmirNath50099@example.net</t>
+  </si>
+  <si>
+    <t>1989-11-30</t>
+  </si>
+  <si>
+    <t>364397133240382</t>
+  </si>
+  <si>
+    <t>5b77b577c8c400b0</t>
+  </si>
+  <si>
+    <t>735443173983853</t>
+  </si>
+  <si>
+    <t>IDEP615743439826ET35</t>
   </si>
 </sst>
 </file>
@@ -2026,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2146,7 +2209,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2595,16 +2658,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2823,13 +2886,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="F2" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3376,10 +3439,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3391,7 +3454,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3400,10 +3463,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="M2" t="n">
-        <v>4224877.0</v>
+        <v>4225059.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3559,7 +3622,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3576,7 +3639,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3593,7 +3656,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3610,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3627,7 +3690,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3713,7 +3776,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3957,7 +4020,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4172,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4255,7 +4318,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4553,7 +4616,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4573,7 +4636,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4593,7 +4656,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4613,7 +4676,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4633,7 +4696,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4653,7 +4716,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4673,7 +4736,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="541">
   <si>
     <t>TestCases</t>
   </si>
@@ -1594,6 +1594,78 @@
   </si>
   <si>
     <t>IDEP615743439826ET35</t>
+  </si>
+  <si>
+    <t>8444943351</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>GaneshTak46965@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-30</t>
+  </si>
+  <si>
+    <t>748341317210719</t>
+  </si>
+  <si>
+    <t>f6d9a387c0540de4</t>
+  </si>
+  <si>
+    <t>169278441164737</t>
+  </si>
+  <si>
+    <t>IDEP15674666115449MF</t>
+  </si>
+  <si>
+    <t>9833289356</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>NazirRanganathan41393@example.net</t>
+  </si>
+  <si>
+    <t>1971-06-03</t>
+  </si>
+  <si>
+    <t>830608113557652</t>
+  </si>
+  <si>
+    <t>359c7193fbb9f696</t>
+  </si>
+  <si>
+    <t>175063250824502</t>
+  </si>
+  <si>
+    <t>IDEP7561477245612DER</t>
+  </si>
+  <si>
+    <t>6665439563</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>SubhashWadhwa55477@example.net</t>
+  </si>
+  <si>
+    <t>1991-04-10</t>
+  </si>
+  <si>
+    <t>518016560663925</t>
+  </si>
+  <si>
+    <t>27ebeeb3fe8e3ea2</t>
+  </si>
+  <si>
+    <t>799066165574753</t>
+  </si>
+  <si>
+    <t>IDEP617548598584UNR8</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2209,7 +2281,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2658,16 +2730,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2886,13 +2958,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3439,10 +3511,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3454,7 +3526,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3463,10 +3535,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="M2" t="n">
-        <v>4225059.0</v>
+        <v>4225184.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3622,7 +3694,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3639,7 +3711,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3656,7 +3728,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3673,7 +3745,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3690,7 +3762,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3776,7 +3848,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4020,7 +4092,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4235,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4318,7 +4390,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4616,7 +4688,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4636,7 +4708,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4656,7 +4728,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4676,7 +4748,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4696,7 +4768,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4716,7 +4788,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4736,7 +4808,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="580">
   <si>
     <t>TestCases</t>
   </si>
@@ -1666,6 +1666,123 @@
   </si>
   <si>
     <t>IDEP617548598584UNR8</t>
+  </si>
+  <si>
+    <t>7090192089</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>RupalDevan21511@example.net</t>
+  </si>
+  <si>
+    <t>1975-05-09</t>
+  </si>
+  <si>
+    <t>264762733784686</t>
+  </si>
+  <si>
+    <t>288bba442a57a8e4</t>
+  </si>
+  <si>
+    <t>697202249615378</t>
+  </si>
+  <si>
+    <t>IDEP675168683164CKV6</t>
+  </si>
+  <si>
+    <t>9086725548</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>HemendraZachariah21734@example.net</t>
+  </si>
+  <si>
+    <t>1970-02-22</t>
+  </si>
+  <si>
+    <t>696744259066399</t>
+  </si>
+  <si>
+    <t>b8bd4cebb010e37e</t>
+  </si>
+  <si>
+    <t>614632180654186</t>
+  </si>
+  <si>
+    <t>IDEP176562852982PUZK</t>
+  </si>
+  <si>
+    <t>9683196995</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>AlbertRanganathan14290@example.net</t>
+  </si>
+  <si>
+    <t>1982-11-17</t>
+  </si>
+  <si>
+    <t>686621131195624</t>
+  </si>
+  <si>
+    <t>207129167856b053</t>
+  </si>
+  <si>
+    <t>534709604648676</t>
+  </si>
+  <si>
+    <t>IDEP715662884483THI5</t>
+  </si>
+  <si>
+    <t>6855241434</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>RajendraPatla67270@example.net</t>
+  </si>
+  <si>
+    <t>1991-04-16</t>
+  </si>
+  <si>
+    <t>614600382676075</t>
+  </si>
+  <si>
+    <t>170ac6321f261498</t>
+  </si>
+  <si>
+    <t>634647893217275</t>
+  </si>
+  <si>
+    <t>IDEP176563343871POEZ</t>
+  </si>
+  <si>
+    <t>9357989293</t>
+  </si>
+  <si>
+    <t>GovindNarasimhan49940@example.net</t>
+  </si>
+  <si>
+    <t>1987-07-20</t>
+  </si>
+  <si>
+    <t>479041984518320</t>
+  </si>
+  <si>
+    <t>ed3a456eaa31d7d6</t>
+  </si>
+  <si>
+    <t>286310246500142</t>
+  </si>
+  <si>
+    <t>IDEP715664491848SIQG</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2281,7 +2398,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2730,16 +2847,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2958,13 +3075,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3511,10 +3628,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3526,7 +3643,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3535,10 +3652,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="M2" t="n">
-        <v>4225184.0</v>
+        <v>4225421.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3694,7 +3811,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3711,7 +3828,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3728,7 +3845,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3745,7 +3862,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3762,7 +3879,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3848,7 +3965,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4092,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4307,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4390,7 +4507,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4688,7 +4805,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4708,7 +4825,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4728,7 +4845,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4748,7 +4865,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4768,7 +4885,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4788,7 +4905,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4808,7 +4925,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="696">
   <si>
     <t>TestCases</t>
   </si>
@@ -1783,6 +1783,354 @@
   </si>
   <si>
     <t>IDEP715664491848SIQG</t>
+  </si>
+  <si>
+    <t>6645667621</t>
+  </si>
+  <si>
+    <t>Kusum</t>
+  </si>
+  <si>
+    <t>BharatNaruka60417@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-01</t>
+  </si>
+  <si>
+    <t>066233769270412</t>
+  </si>
+  <si>
+    <t>9ca232dfd661a520</t>
+  </si>
+  <si>
+    <t>874994133834298</t>
+  </si>
+  <si>
+    <t>7798662098</t>
+  </si>
+  <si>
+    <t>Lalita</t>
+  </si>
+  <si>
+    <t>KalpitMangal63775@example.net</t>
+  </si>
+  <si>
+    <t>1993-03-06</t>
+  </si>
+  <si>
+    <t>077619307614896</t>
+  </si>
+  <si>
+    <t>92fa35e6299909f3</t>
+  </si>
+  <si>
+    <t>072820156628335</t>
+  </si>
+  <si>
+    <t>8194318140</t>
+  </si>
+  <si>
+    <t>BalajiTara26086@example.net</t>
+  </si>
+  <si>
+    <t>1974-06-28</t>
+  </si>
+  <si>
+    <t>792280958448631</t>
+  </si>
+  <si>
+    <t>b9177c5975f2fde1</t>
+  </si>
+  <si>
+    <t>523548552320224</t>
+  </si>
+  <si>
+    <t>6477671875</t>
+  </si>
+  <si>
+    <t>Upasana</t>
+  </si>
+  <si>
+    <t>MunafBhalla92999@example.net</t>
+  </si>
+  <si>
+    <t>1993-12-13</t>
+  </si>
+  <si>
+    <t>648663961936831</t>
+  </si>
+  <si>
+    <t>032b149c8918d38b</t>
+  </si>
+  <si>
+    <t>473595635417030</t>
+  </si>
+  <si>
+    <t>6049299541</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>LabeenBahri36379@example.net</t>
+  </si>
+  <si>
+    <t>1994-10-12</t>
+  </si>
+  <si>
+    <t>072188677905362</t>
+  </si>
+  <si>
+    <t>c2fe2fbe7065d78e</t>
+  </si>
+  <si>
+    <t>641031992655605</t>
+  </si>
+  <si>
+    <t>6428508606</t>
+  </si>
+  <si>
+    <t>SatishPuri53708@example.net</t>
+  </si>
+  <si>
+    <t>1974-08-23</t>
+  </si>
+  <si>
+    <t>384507288974348</t>
+  </si>
+  <si>
+    <t>d391d72583a3ff4b</t>
+  </si>
+  <si>
+    <t>636690833954050</t>
+  </si>
+  <si>
+    <t>6635210751</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>PrasoonNaik28031@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-16</t>
+  </si>
+  <si>
+    <t>431194733902365</t>
+  </si>
+  <si>
+    <t>4840434bbcb5d6fc</t>
+  </si>
+  <si>
+    <t>396326184779131</t>
+  </si>
+  <si>
+    <t>IDEP6571588888953OTS</t>
+  </si>
+  <si>
+    <t>9269499429</t>
+  </si>
+  <si>
+    <t>Chhaya</t>
+  </si>
+  <si>
+    <t>NawabPillai45502@example.net</t>
+  </si>
+  <si>
+    <t>1984-01-03</t>
+  </si>
+  <si>
+    <t>299009143694249</t>
+  </si>
+  <si>
+    <t>d30b883bd8c208ce</t>
+  </si>
+  <si>
+    <t>479608033210917</t>
+  </si>
+  <si>
+    <t>IDEP6157514255446RH7</t>
+  </si>
+  <si>
+    <t>8214564840</t>
+  </si>
+  <si>
+    <t>ArjunGoda93770@example.net</t>
+  </si>
+  <si>
+    <t>1976-04-19</t>
+  </si>
+  <si>
+    <t>005657515739037</t>
+  </si>
+  <si>
+    <t>7ba1f34d8c03e4f7</t>
+  </si>
+  <si>
+    <t>430707472068444</t>
+  </si>
+  <si>
+    <t>IDEP156716741981BVHG</t>
+  </si>
+  <si>
+    <t>6766558605</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>RickyRamroop77381@example.net</t>
+  </si>
+  <si>
+    <t>1970-04-25</t>
+  </si>
+  <si>
+    <t>454550193718934</t>
+  </si>
+  <si>
+    <t>e25bb44a14a06051</t>
+  </si>
+  <si>
+    <t>386482024490926</t>
+  </si>
+  <si>
+    <t>IDEP5761182975653W9R</t>
+  </si>
+  <si>
+    <t>7528937014</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>SahilBalakrishnan78514@example.net</t>
+  </si>
+  <si>
+    <t>1986-04-10</t>
+  </si>
+  <si>
+    <t>251437389113952</t>
+  </si>
+  <si>
+    <t>56855619d17a3414</t>
+  </si>
+  <si>
+    <t>776301388873774</t>
+  </si>
+  <si>
+    <t>IDEP57161924619141LO</t>
+  </si>
+  <si>
+    <t>9155075340</t>
+  </si>
+  <si>
+    <t>AayushmanMagar42392@example.net</t>
+  </si>
+  <si>
+    <t>1981-01-16</t>
+  </si>
+  <si>
+    <t>226279216475218</t>
+  </si>
+  <si>
+    <t>06853ba4f2caac9f</t>
+  </si>
+  <si>
+    <t>622909113243778</t>
+  </si>
+  <si>
+    <t>IDEP576123847518GE94</t>
+  </si>
+  <si>
+    <t>7097064375</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>MalikKaul27435@example.net</t>
+  </si>
+  <si>
+    <t>1971-05-10</t>
+  </si>
+  <si>
+    <t>285875209321919</t>
+  </si>
+  <si>
+    <t>620b6091ad04d929</t>
+  </si>
+  <si>
+    <t>114213625009180</t>
+  </si>
+  <si>
+    <t>IDEP1675246687665EMZ</t>
+  </si>
+  <si>
+    <t>7145337549</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>NaseerGour48776@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-12</t>
+  </si>
+  <si>
+    <t>398112625727659</t>
+  </si>
+  <si>
+    <t>b3d307374afe0493</t>
+  </si>
+  <si>
+    <t>473452959693079</t>
+  </si>
+  <si>
+    <t>IDEP5176297982789K73</t>
+  </si>
+  <si>
+    <t>6616258923</t>
+  </si>
+  <si>
+    <t>AarifSanghvi22745@example.net</t>
+  </si>
+  <si>
+    <t>1984-09-15</t>
+  </si>
+  <si>
+    <t>331582381862744</t>
+  </si>
+  <si>
+    <t>e15c79ed787cdb3b</t>
+  </si>
+  <si>
+    <t>897208968251129</t>
+  </si>
+  <si>
+    <t>IDEP1765317536886OD1</t>
+  </si>
+  <si>
+    <t>6082396775</t>
+  </si>
+  <si>
+    <t>SuryaGarde83405@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-23</t>
+  </si>
+  <si>
+    <t>050366104414598</t>
+  </si>
+  <si>
+    <t>6709f9639e6b5aec</t>
+  </si>
+  <si>
+    <t>236653009760382</t>
+  </si>
+  <si>
+    <t>IDEP671534165513SN4Z</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2398,7 +2746,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2847,16 +3195,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>577</v>
+        <v>693</v>
       </c>
       <c r="C2" t="s">
-        <v>578</v>
+        <v>694</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3075,13 +3423,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="F2" t="s">
-        <v>575</v>
+        <v>691</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3628,10 +3976,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3643,7 +3991,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3652,10 +4000,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="M2" t="n">
-        <v>4225421.0</v>
+        <v>4233507.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3811,7 +4159,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3828,7 +4176,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3845,7 +4193,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3862,7 +4210,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3879,7 +4227,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>689</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3965,7 +4313,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4209,7 +4557,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>576</v>
+        <v>692</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4424,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4507,7 +4855,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4805,7 +5153,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4825,7 +5173,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4845,7 +5193,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4865,7 +5213,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4885,7 +5233,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4905,7 +5253,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4925,7 +5273,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L1_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="786">
   <si>
     <t>TestCases</t>
   </si>
@@ -2131,6 +2131,276 @@
   </si>
   <si>
     <t>IDEP671534165513SN4Z</t>
+  </si>
+  <si>
+    <t>9280075547</t>
+  </si>
+  <si>
+    <t>Jayshree</t>
+  </si>
+  <si>
+    <t>NitinDhar38786@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-08</t>
+  </si>
+  <si>
+    <t>366510639939632</t>
+  </si>
+  <si>
+    <t>83c118648292766e</t>
+  </si>
+  <si>
+    <t>882968887697853</t>
+  </si>
+  <si>
+    <t>9760606200</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>AkshayKata96678@example.net</t>
+  </si>
+  <si>
+    <t>1976-05-17</t>
+  </si>
+  <si>
+    <t>875485200845027</t>
+  </si>
+  <si>
+    <t>344dd0c893a7bf3c</t>
+  </si>
+  <si>
+    <t>103180540796352</t>
+  </si>
+  <si>
+    <t>8538948587</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>BinodKade79904@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-04</t>
+  </si>
+  <si>
+    <t>010572518798240</t>
+  </si>
+  <si>
+    <t>a78b6b4ef64560f0</t>
+  </si>
+  <si>
+    <t>801112318079526</t>
+  </si>
+  <si>
+    <t>IDEP617584239684FANG</t>
+  </si>
+  <si>
+    <t>9664219816</t>
+  </si>
+  <si>
+    <t>AbbasGuha27063@example.net</t>
+  </si>
+  <si>
+    <t>1982-01-14</t>
+  </si>
+  <si>
+    <t>824896894341366</t>
+  </si>
+  <si>
+    <t>04ee566de20565c0</t>
+  </si>
+  <si>
+    <t>479435845365550</t>
+  </si>
+  <si>
+    <t>IDEP761589643343T8EL</t>
+  </si>
+  <si>
+    <t>7458793197</t>
+  </si>
+  <si>
+    <t>BirenThaman73268@example.net</t>
+  </si>
+  <si>
+    <t>1982-09-03</t>
+  </si>
+  <si>
+    <t>350366114947113</t>
+  </si>
+  <si>
+    <t>5a7bb2745e5b6a22</t>
+  </si>
+  <si>
+    <t>072493666774203</t>
+  </si>
+  <si>
+    <t>IDEP176516788393LOD5</t>
+  </si>
+  <si>
+    <t>9804490812</t>
+  </si>
+  <si>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>DhirajMander51203@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-09</t>
+  </si>
+  <si>
+    <t>259193508675643</t>
+  </si>
+  <si>
+    <t>ddf896b102330a39</t>
+  </si>
+  <si>
+    <t>639744227176874</t>
+  </si>
+  <si>
+    <t>8571178776</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>AzharMahal13206@example.net</t>
+  </si>
+  <si>
+    <t>1972-05-25</t>
+  </si>
+  <si>
+    <t>618591455550261</t>
+  </si>
+  <si>
+    <t>c7569e8409e19019</t>
+  </si>
+  <si>
+    <t>568020688689183</t>
+  </si>
+  <si>
+    <t>IDEP715617189442R6LQ</t>
+  </si>
+  <si>
+    <t>7228689376</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>PrabhatPau49809@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-14</t>
+  </si>
+  <si>
+    <t>314833004403098</t>
+  </si>
+  <si>
+    <t>c69cbe89b670a516</t>
+  </si>
+  <si>
+    <t>218208925137975</t>
+  </si>
+  <si>
+    <t>IDEP1765181384487ATJ</t>
+  </si>
+  <si>
+    <t>7801669353</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>KushalBasu53740@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-17</t>
+  </si>
+  <si>
+    <t>847512874657944</t>
+  </si>
+  <si>
+    <t>1980d2943e0df2de</t>
+  </si>
+  <si>
+    <t>347080432922791</t>
+  </si>
+  <si>
+    <t>IDEP675119234934GW42</t>
+  </si>
+  <si>
+    <t>8017358671</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>JaswantMistry82168@example.net</t>
+  </si>
+  <si>
+    <t>1990-12-12</t>
+  </si>
+  <si>
+    <t>480313039338799</t>
+  </si>
+  <si>
+    <t>94f7092664961c6e</t>
+  </si>
+  <si>
+    <t>599460992838626</t>
+  </si>
+  <si>
+    <t>IDEP75612877984946N2</t>
+  </si>
+  <si>
+    <t>6847428718</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>GauravChohan20204@example.net</t>
+  </si>
+  <si>
+    <t>1989-01-02</t>
+  </si>
+  <si>
+    <t>783063114611552</t>
+  </si>
+  <si>
+    <t>3b38b34d48a3fded</t>
+  </si>
+  <si>
+    <t>430327082030476</t>
+  </si>
+  <si>
+    <t>IDEP6571217977499OP1</t>
+  </si>
+  <si>
+    <t>6897220233</t>
+  </si>
+  <si>
+    <t>QaboolMallick17123@example.net</t>
+  </si>
+  <si>
+    <t>1993-09-01</t>
+  </si>
+  <si>
+    <t>602404143535470</t>
+  </si>
+  <si>
+    <t>45d609312d4cb8da</t>
+  </si>
+  <si>
+    <t>166541009506422</t>
+  </si>
+  <si>
+    <t>IDEP7156228841794J7X</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2896,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2746,7 +3016,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3195,16 +3465,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3426,10 +3696,10 @@
         <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="F2" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3976,10 +4246,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3991,7 +4261,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4000,10 +4270,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="M2" t="n">
-        <v>4233507.0</v>
+        <v>4234180.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4159,7 +4429,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4176,7 +4446,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4193,7 +4463,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4210,7 +4480,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4227,7 +4497,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4313,7 +4583,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4557,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4855,7 +5125,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5153,7 +5423,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5173,7 +5443,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5193,7 +5463,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5213,7 +5483,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5233,7 +5503,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5253,7 +5523,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5273,7 +5543,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="C8">
         <v>725</v>
